--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -319,10 +319,10 @@
     <t>ZestIOT_AV_2390_UI_SG_HYD_Detect_totalNo_offlights_forwhich_finalCOBT_hashighOrless_difference_compareto_Actual_Offblock</t>
   </si>
   <si>
-    <t>nilesh@zestiot.io, amit@zestiot.io, sushanto@zestiot.io, Krishna@zestiot.io, anantwar@zestiot.io, shrikant@zestiot.io, rohan@zestiot.io, chiranjeevi@zestiot.io, stiyyagura@enhops.com, pdwadasi@enhops.com, rbuddha@enhops.com, rchiluka@enhops.com, smunnangi@enhops.com, nishanth@zestiot.io, hmanthena@enhops.com, mpyla@enhops.com, venkatesh@zestiot.io, ravi@zestiot.io, Nikhileshwar@zestiot.io, samson@zestiot.io , anwesh@zestiot.io, anil@zestiot.io</t>
-  </si>
-  <si>
     <t>ZestIOT_AV_2272_Verify_Pushback_Activities</t>
+  </si>
+  <si>
+    <t>nilesh@zestiot.io, amit@zestiot.io, sushanto@zestiot.io, Krishna@zestiot.io, anantwar@zestiot.io, shrikant@zestiot.io, rohan@zestiot.io, chiranjeevi@zestiot.io, stiyyagura@enhops.com, pdwadasi@enhops.com, rbuddha@enhops.com, rchiluka@enhops.com, smunnangi@enhops.com, nishanth@zestiot.io, hmanthena@enhops.com, mpyla@enhops.com, venkatesh@zestiot.io, ravi@zestiot.io, Nikhileshwar@zestiot.io, samson@zestiot.io , anwesh@zestiot.io, anil@zestiot.io, supriti@zestiot.io, supriti@zestiot.io, venkata@zestiot.io</t>
   </si>
 </sst>
 </file>
@@ -745,7 +745,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,12 +880,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="198" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1154,7 +1154,7 @@
         <v>36</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>55</v>
@@ -1171,7 +1171,7 @@
         <v>37</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>55</v>
@@ -1188,7 +1188,7 @@
         <v>62</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>55</v>
@@ -1205,7 +1205,7 @@
         <v>63</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>55</v>
@@ -1222,7 +1222,7 @@
         <v>64</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>55</v>
@@ -1239,7 +1239,7 @@
         <v>65</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>55</v>
@@ -1256,7 +1256,7 @@
         <v>41</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>67</v>
@@ -1295,13 +1295,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="3" spans="1:1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="100">
   <si>
     <t>Project ID/Name</t>
   </si>
@@ -744,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,13 +880,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="198" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>99</v>
-      </c>
+      <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -913,11 +911,8 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1" display="stiyyagura@enhops.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
